--- a/docs/Parameter_Values.xlsx
+++ b/docs/Parameter_Values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\bvss\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\old_bvss\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6B75CA9-9D12-4FF8-8EB8-ADB946DE2E13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9157FC-0D42-4E2B-8705-68D15147FD49}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00E475BB-A5D9-485F-B41A-343596B122C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Condition</t>
   </si>
@@ -42,9 +42,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>tokens, crypto, fiat money can be lost, blocked etc.</t>
-  </si>
-  <si>
     <t>Vector</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>tokens, crypto, fiat money can be blocked</t>
+  </si>
+  <si>
+    <t>tokens, crypto, fiat money can be stolen</t>
   </si>
 </sst>
 </file>
@@ -284,6 +287,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,12 +300,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD78DD6-A0AD-4001-9DFA-421CBDDA4CAB}">
-  <dimension ref="C4:E23"/>
+  <dimension ref="C4:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,190 +642,199 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
+    <row r="11" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E12" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
     <row r="14" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9">
+    <row r="16" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+    <row r="17" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="9">
+    <row r="22" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6">
         <v>0.66</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
+    <row r="23" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="10">
+    <row r="24" spans="3:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
